--- a/DSD_2024_2025/ficheiros_responsaveis_ucs/DSD_2024_2025_responsaveis_UCs_fechado_12_mar_2024_desprotegido_ML_15MAR2024_corr_SIG2ciclo.xlsx
+++ b/DSD_2024_2025/ficheiros_responsaveis_ucs/DSD_2024_2025_responsaveis_UCs_fechado_12_mar_2024_desprotegido_ML_15MAR2024_corr_SIG2ciclo.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">cod_curso!$A$1:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RH!$A$1:$H$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RH!$A$1:$H$320</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'uc_2024-25'!$A$1:$Y$454</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="1421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="1421">
   <si>
     <t>num_pessoal</t>
   </si>
@@ -4389,7 +4389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4406,6 +4406,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4708,7 +4709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4750,6720 +4751,6732 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>26239</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>45948</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>27641</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3">
         <v>46699</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>7500823</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>45626</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>26453</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3">
         <v>46267</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>7500921</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>45565</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>25718</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3">
         <v>45689</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>27600</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>46669</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>25643</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="3">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3">
         <v>45565</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>28326</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>47079</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>26916</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3">
         <v>46349</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>7500106</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>15</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>7500334</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>7500275</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>7500277</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>23554</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>46823</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>7500135</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>7500102</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>15</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>7500252</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>7500276</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>15</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>7500046</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>14791</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <v>47065</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>7500129</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>7500140</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>15</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>7500250</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>18036</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <v>45969</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>16717</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="3">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="3">
         <v>46748</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>26325</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>31</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G37" s="2">
         <v>46111</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>7500224</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>7500665</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
         <v>49</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>20961</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="3">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="3">
         <v>46207</v>
       </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>7500511</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>72</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>60</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>15</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>7500946</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="3">
         <v>46261</v>
       </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>18649</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G43" s="2">
         <v>45705</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>27632</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="3">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="3">
         <v>46687</v>
       </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>24258</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>31</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G45" s="2">
         <v>46669</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>27054</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="3">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="3">
         <v>46508</v>
       </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>7500254</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>80</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>35</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>53</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>15</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>7500824</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>45626</v>
       </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>7500226</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>82</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>13</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>83</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>15</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>7500051</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>19789</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>85</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>31</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G51" s="2">
         <v>46377</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>27729</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="3">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="3">
         <v>46795</v>
       </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>27636</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>87</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>31</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G53" s="2">
         <v>46694</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>27629</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="3">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="3">
         <v>46686</v>
       </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>15555</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>89</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>31</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>32</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G55" s="2">
         <v>45585</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>25195</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="3">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="3">
         <v>46053</v>
       </c>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>28227</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>91</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>31</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>32</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="2">
         <v>47013</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>28254</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="3">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="3">
         <v>47020</v>
       </c>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>19309</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>93</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>31</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>32</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G59" s="2">
         <v>46669</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>26983</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="3">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="3">
         <v>46448</v>
       </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>27646</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>95</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>31</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G61" s="2">
         <v>46708</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>26443</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="3">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="3">
         <v>46266</v>
       </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>27596</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>97</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>31</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>32</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G63" s="2">
         <v>46669</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>7500092</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>17752</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>99</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>31</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G65" s="2">
         <v>45608</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>22035</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="3">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="3">
         <v>45924</v>
       </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>7500185</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>101</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>14</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
         <v>15</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>21550</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="3">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="3">
         <v>45907</v>
       </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>7500628</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>103</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>40</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>104</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>0</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>105</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>7500282</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>26434</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>107</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>31</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>32</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G71" s="2">
         <v>46265</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <v>7500128</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>27597</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>110</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>31</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G73" s="2">
         <v>46669</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>27016</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="3">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="3">
         <v>46459</v>
       </c>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>7500047</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>112</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>13</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>83</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
         <v>15</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>25505</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="3">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="3">
         <v>46265</v>
       </c>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>23790</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>114</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>32</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G77" s="2">
         <v>47008</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>22091</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="3">
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="3">
         <v>46476</v>
       </c>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>26903</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>116</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G79" s="2">
         <v>46327</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>25849</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="3">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="3">
         <v>45907</v>
       </c>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>7500924</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>118</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>40</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G81" s="2">
         <v>45565</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>23002</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="3">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="3">
         <v>45626</v>
       </c>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>7500186</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>120</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>13</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>60</v>
       </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
         <v>15</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>26437</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="3">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="3">
         <v>46265</v>
       </c>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>28173</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>122</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>31</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>32</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G85" s="2">
         <v>47008</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>7500917</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E85" s="1">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G86" s="3">
         <v>46093</v>
       </c>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>26882</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>125</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>31</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G87" s="2">
         <v>46319</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>7500223</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>7500763</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>127</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>13</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>14</v>
       </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
         <v>49</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G89" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>7500492</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="1">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G90" s="3">
         <v>46142</v>
       </c>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>18632</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>129</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>31</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>32</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G91" s="2">
         <v>46153</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>7500120</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="s">
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>7500208</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>131</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>40</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>104</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
         <v>15</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>7500212</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="F93" s="1" t="s">
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>7500199</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>133</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>40</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>104</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>0</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>134</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>19858</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="3">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="3">
         <v>46669</v>
       </c>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96">
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>7500358</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>136</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>13</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>14</v>
       </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
         <v>15</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <v>25744</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="3">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="3">
         <v>46081</v>
       </c>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>7500272</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>138</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>35</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>53</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
         <v>15</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <v>7500072</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="1">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100">
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>7500261</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>140</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>35</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>53</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
         <v>15</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G101" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
         <v>7500531</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E101" s="1">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G102" s="3">
         <v>46112</v>
       </c>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102">
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>14827</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>142</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>31</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>32</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G103" s="2">
         <v>45923</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
         <v>27033</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="3">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="3">
         <v>46476</v>
       </c>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>27598</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>144</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>32</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G105" s="2">
         <v>46669</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <v>7500231</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E105" s="1">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106">
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>7500661</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>147</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>13</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
         <v>146</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G107" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
         <v>21854</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="3">
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="3">
         <v>45654</v>
       </c>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108">
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>7500070</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>149</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>13</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
         <v>15</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G109" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
         <v>24206</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="3">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="3">
         <v>46749</v>
       </c>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110">
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>27599</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>151</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>31</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>32</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G111" s="2">
         <v>46669</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>27637</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="3">
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="3">
         <v>46694</v>
       </c>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112">
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>7500653</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>153</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>35</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>36</v>
       </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
         <v>37</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G113" s="2">
         <v>45991</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
         <v>7500227</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E114" s="1">
         <v>0</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114">
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
         <v>26271</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>156</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>31</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>32</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G115" s="2">
         <v>46048</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
         <v>7500270</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="s">
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117">
         <v>17197</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>158</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>31</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>32</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G117" s="2">
         <v>47023</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
         <v>7500126</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E117" s="1">
-        <v>1</v>
-      </c>
-      <c r="F117" s="1" t="s">
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
         <v>26459</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>160</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>31</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>32</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G119" s="2">
         <v>46270</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
         <v>20944</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="3">
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="3">
         <v>47051</v>
       </c>
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120">
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>25644</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>162</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>31</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>32</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G121" s="2">
         <v>46643</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
         <v>21710</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="3">
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="3">
         <v>46686</v>
       </c>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122">
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>25660</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>164</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>31</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>32</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G123" s="2">
         <v>45578</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
         <v>28174</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="3">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="3">
         <v>47009</v>
       </c>
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124">
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>7500721</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>166</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>35</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>36</v>
       </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
         <v>37</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G125" s="2">
         <v>45716</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
         <v>7500656</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E125" s="1">
-        <v>1</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G126" s="3">
         <v>45808</v>
       </c>
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126">
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>7500071</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>169</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>13</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>109</v>
       </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
         <v>15</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G127" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
         <v>7500067</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E127" s="1">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128">
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>7500116</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>171</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>13</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
         <v>15</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G129" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
         <v>25121</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="3">
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="3">
         <v>46267</v>
       </c>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130">
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>7500295</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>173</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>13</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>14</v>
       </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
         <v>146</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G131" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
         <v>22836</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="3">
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="3">
         <v>46098</v>
       </c>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132">
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
         <v>7500827</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>175</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>35</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>36</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G133" s="2">
         <v>45657</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
         <v>27658</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="3">
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="3">
         <v>46741</v>
       </c>
-      <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134">
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
         <v>27886</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>177</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>31</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>32</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G135" s="2">
         <v>47007</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
         <v>7500329</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E135" s="1">
-        <v>1</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G136" s="3">
         <v>45587</v>
       </c>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136">
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
         <v>7500757</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>179</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>40</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>104</v>
       </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
         <v>15</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G137" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
         <v>22878</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="3">
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="3">
         <v>47112</v>
       </c>
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138">
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139">
         <v>7500093</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>181</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>13</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D139" t="s">
         <v>69</v>
       </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
         <v>15</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G139" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
         <v>15264</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="3">
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="3">
         <v>46267</v>
       </c>
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140">
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
         <v>28320</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>183</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>31</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>32</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G141" s="2">
         <v>47063</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
         <v>25717</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="3">
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="3">
         <v>45689</v>
       </c>
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142">
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
         <v>7500664</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>185</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>13</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D143" t="s">
         <v>14</v>
       </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
         <v>146</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G143" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
         <v>20147</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="3">
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="3">
         <v>46347</v>
       </c>
-      <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144">
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>7500228</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>187</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>13</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D145" t="s">
         <v>14</v>
       </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
         <v>146</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G145" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
         <v>27727</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="3">
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="3">
         <v>46789</v>
       </c>
-      <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146">
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147">
         <v>7500512</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>189</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>13</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>14</v>
       </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
         <v>15</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G147" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
         <v>7500141</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E147" s="1">
-        <v>1</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148">
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>7500090</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>192</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>13</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>83</v>
       </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
         <v>15</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G149" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
         <v>7500738</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E149" s="1">
-        <v>1</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G149" s="3">
+      <c r="G150" s="3">
         <v>46265</v>
       </c>
-      <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150">
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>25234</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>194</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>31</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>32</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G151" s="2">
         <v>46687</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
         <v>28324</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="3">
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="3">
         <v>47068</v>
       </c>
-      <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152">
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>7500080</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>196</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>13</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>60</v>
       </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
         <v>15</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G153" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
         <v>7500028</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E153" s="1">
-        <v>1</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154">
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>7500076</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>198</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>13</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D155" t="s">
         <v>109</v>
       </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
         <v>15</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G155" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
         <v>7500249</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E155" s="1">
-        <v>1</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156">
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>7500247</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>200</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>35</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>51</v>
       </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
         <v>15</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G157" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
         <v>7500060</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E157" s="1">
-        <v>1</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158">
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>26435</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>202</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>31</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>32</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G159" s="2">
         <v>46265</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
         <v>7500068</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E159" s="1">
-        <v>1</v>
-      </c>
-      <c r="F159" s="1" t="s">
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160">
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161">
         <v>7500414</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>204</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>13</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>14</v>
       </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
         <v>49</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G161" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
         <v>7500059</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E161" s="1">
-        <v>1</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162">
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163">
         <v>7500058</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>206</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>13</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>69</v>
       </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
         <v>15</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G163" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
         <v>24078</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="3">
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="3">
         <v>46265</v>
       </c>
-      <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164">
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>26254</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>208</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>31</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>32</v>
       </c>
-      <c r="G164" s="2">
+      <c r="G165" s="2">
         <v>45977</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
         <v>7500490</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E165" s="1">
-        <v>1</v>
-      </c>
-      <c r="F165" s="1" t="s">
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G165" s="3">
+      <c r="G166" s="3">
         <v>46261</v>
       </c>
-      <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166">
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>7500941</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>210</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>40</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>41</v>
       </c>
-      <c r="G166" s="2">
+      <c r="G167" s="2">
         <v>45645</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
         <v>7500960</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="3">
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="3">
         <v>45565</v>
       </c>
-      <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168">
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169">
         <v>27661</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>212</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>31</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>32</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G169" s="2">
         <v>46741</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
         <v>26385</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="3">
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="3">
         <v>46209</v>
       </c>
-      <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170">
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171">
         <v>22076</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>214</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>31</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D171" t="s">
         <v>32</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G171" s="2">
         <v>46284</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
         <v>28253</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="3">
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="3">
         <v>47020</v>
       </c>
-      <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172">
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>7500585</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>216</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>35</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
         <v>36</v>
       </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
         <v>37</v>
       </c>
-      <c r="G172" s="2">
+      <c r="G173" s="2">
         <v>45961</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
         <v>7500268</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E173" s="1">
-        <v>1</v>
-      </c>
-      <c r="F173" s="1" t="s">
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174">
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>7500688</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>218</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>13</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
         <v>219</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G175" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
         <v>7500131</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E175" s="1">
-        <v>1</v>
-      </c>
-      <c r="F175" s="1" t="s">
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G176" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176">
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>7500055</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>221</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>13</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>14</v>
       </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
         <v>15</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G177" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
         <v>7500104</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E177" s="1">
-        <v>1</v>
-      </c>
-      <c r="F177" s="1" t="s">
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178">
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>7500399</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>223</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>13</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
         <v>146</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G179" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
         <v>24080</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="3">
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="3">
         <v>47006</v>
       </c>
-      <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180">
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>22023</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>225</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>31</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>32</v>
       </c>
-      <c r="G180" s="2">
+      <c r="G181" s="2">
         <v>46341</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
         <v>27667</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="3">
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="3">
         <v>46749</v>
       </c>
-      <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182">
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>27654</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>227</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>31</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>32</v>
       </c>
-      <c r="G182" s="2">
+      <c r="G183" s="2">
         <v>46725</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
         <v>11852</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="3">
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="3">
         <v>46452</v>
       </c>
-      <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184">
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>7500095</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>229</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>13</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>69</v>
       </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
         <v>15</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G185" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
         <v>7500115</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E185" s="1">
-        <v>1</v>
-      </c>
-      <c r="F185" s="1" t="s">
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186">
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187">
         <v>7500075</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>231</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>13</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>69</v>
       </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
         <v>15</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G187" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
         <v>28247</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="3">
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="3">
         <v>47019</v>
       </c>
-      <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188">
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189">
         <v>23238</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>233</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>31</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>32</v>
       </c>
-      <c r="G188" s="2">
+      <c r="G189" s="2">
         <v>46644</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
         <v>16710</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="3">
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="3">
         <v>46284</v>
       </c>
-      <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190">
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>7500246</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>235</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>35</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>53</v>
       </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
         <v>15</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G191" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
         <v>7500069</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E191" s="1">
-        <v>1</v>
-      </c>
-      <c r="F191" s="1" t="s">
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192">
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193">
         <v>7500509</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>237</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>40</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>104</v>
       </c>
-      <c r="E192">
-        <v>1</v>
-      </c>
-      <c r="F192" t="s">
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
         <v>15</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G193" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
         <v>7500636</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E193" s="1">
-        <v>1</v>
-      </c>
-      <c r="F193" s="1" t="s">
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194">
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195">
         <v>27028</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>239</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>31</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>32</v>
       </c>
-      <c r="G194" s="2">
+      <c r="G195" s="2">
         <v>46470</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
         <v>7500289</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E195" s="1">
-        <v>1</v>
-      </c>
-      <c r="F195" s="1" t="s">
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196">
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197">
         <v>7500265</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>241</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>35</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>53</v>
       </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
         <v>15</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G197" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
         <v>7500105</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E197" s="1">
-        <v>1</v>
-      </c>
-      <c r="F197" s="1" t="s">
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198">
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199">
         <v>26990</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>243</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
         <v>31</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D199" t="s">
         <v>32</v>
       </c>
-      <c r="G198" s="2">
+      <c r="G199" s="2">
         <v>46453</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
         <v>7500707</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E199" s="1">
-        <v>1</v>
-      </c>
-      <c r="F199" s="1" t="s">
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200">
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201">
         <v>7500074</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>245</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>13</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>14</v>
       </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200" t="s">
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" t="s">
         <v>15</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G201" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="1">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
         <v>7500048</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E201" s="1">
-        <v>1</v>
-      </c>
-      <c r="F201" s="1" t="s">
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202">
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203">
         <v>7500077</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>247</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>13</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>14</v>
       </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
         <v>15</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G203" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="1">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
         <v>7500081</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E203" s="1">
-        <v>1</v>
-      </c>
-      <c r="F203" s="1" t="s">
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204">
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205">
         <v>7500117</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>249</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>13</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D205" t="s">
         <v>109</v>
       </c>
-      <c r="E204">
-        <v>1</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
         <v>15</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G205" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="1">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
         <v>7500273</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E205" s="1">
-        <v>1</v>
-      </c>
-      <c r="F205" s="1" t="s">
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="G206" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206">
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207">
         <v>7500255</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>251</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>35</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D207" t="s">
         <v>53</v>
       </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-      <c r="F206" t="s">
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
         <v>15</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G207" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
         <v>7500094</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E207" s="1">
-        <v>1</v>
-      </c>
-      <c r="F207" s="1" t="s">
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G208" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208">
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209">
         <v>16955</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>253</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
         <v>31</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D209" t="s">
         <v>32</v>
       </c>
-      <c r="G208" s="2">
+      <c r="G209" s="2">
         <v>46749</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
         <v>7500066</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E209" s="1">
-        <v>1</v>
-      </c>
-      <c r="F209" s="1" t="s">
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210">
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211">
         <v>7500118</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>255</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>13</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211" t="s">
         <v>60</v>
       </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
         <v>15</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G211" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
         <v>7500257</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E211" s="1">
-        <v>1</v>
-      </c>
-      <c r="F211" s="1" t="s">
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G212" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212">
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213">
         <v>7500182</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>257</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>13</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
         <v>14</v>
       </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212" t="s">
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
         <v>15</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G213" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
         <v>7500530</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E213" s="1">
-        <v>1</v>
-      </c>
-      <c r="F213" s="1" t="s">
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214">
+      <c r="H214" s="1"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215">
         <v>7500188</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>259</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>13</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D215" t="s">
         <v>14</v>
       </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-      <c r="F214" t="s">
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
         <v>49</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G215" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
         <v>7500256</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E215" s="1">
-        <v>1</v>
-      </c>
-      <c r="F215" s="1" t="s">
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G216" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216">
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217">
         <v>7500035</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>261</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
         <v>13</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D217" t="s">
         <v>83</v>
       </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216" t="s">
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
         <v>15</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G217" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
         <v>7500123</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E217" s="1">
-        <v>1</v>
-      </c>
-      <c r="F217" s="1" t="s">
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218">
+      <c r="H218" s="1"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219">
         <v>7500269</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>263</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C219" t="s">
         <v>35</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D219" t="s">
         <v>53</v>
       </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218" t="s">
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
         <v>15</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G219" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="1">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
         <v>7500065</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E219" s="1">
-        <v>1</v>
-      </c>
-      <c r="F219" s="1" t="s">
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G220" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220">
+      <c r="H220" s="1"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221">
         <v>7500103</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>265</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>13</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D221" t="s">
         <v>14</v>
       </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220" t="s">
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
         <v>15</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G221" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
         <v>7500193</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E221" s="1">
-        <v>1</v>
-      </c>
-      <c r="F221" s="1" t="s">
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G222" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222">
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223">
         <v>7500056</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>267</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C223" t="s">
         <v>13</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D223" t="s">
         <v>83</v>
       </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222" t="s">
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
         <v>15</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G223" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
         <v>7500187</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E223" s="1">
-        <v>1</v>
-      </c>
-      <c r="F223" s="1" t="s">
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H223" s="1"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224">
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A225">
         <v>7500073</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>269</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>13</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D225" t="s">
         <v>14</v>
       </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224" t="s">
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
         <v>15</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G225" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" s="1">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
         <v>7500251</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E225" s="1">
-        <v>1</v>
-      </c>
-      <c r="F225" s="1" t="s">
+      <c r="E226" s="1">
+        <v>1</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G226" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H225" s="1"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226">
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A227">
         <v>7500266</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>271</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
         <v>35</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D227" t="s">
         <v>53</v>
       </c>
-      <c r="E226">
-        <v>1</v>
-      </c>
-      <c r="F226" t="s">
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
         <v>15</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G227" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
         <v>7500258</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E227" s="1">
-        <v>1</v>
-      </c>
-      <c r="F227" s="1" t="s">
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="G228" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A228">
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A229">
         <v>7500471</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>273</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C229" t="s">
         <v>40</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D229" t="s">
         <v>104</v>
       </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
         <v>49</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G229" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" s="1">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
         <v>7500119</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E229" s="1">
-        <v>1</v>
-      </c>
-      <c r="F229" s="1" t="s">
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="G230" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230">
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A231">
         <v>7500243</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>275</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C231" t="s">
         <v>40</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D231" t="s">
         <v>104</v>
       </c>
-      <c r="E230">
-        <v>1</v>
-      </c>
-      <c r="F230" t="s">
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" t="s">
         <v>15</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G231" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A231" s="1">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
         <v>25897</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="3">
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="3">
         <v>45920</v>
       </c>
-      <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A232">
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A233">
         <v>7500253</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>277</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>35</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D233" t="s">
         <v>51</v>
       </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232" t="s">
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
         <v>15</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G233" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A233" s="1">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
         <v>7500260</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E233" s="1">
-        <v>1</v>
-      </c>
-      <c r="F233" s="1" t="s">
+      <c r="E234" s="1">
+        <v>1</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G234" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H233" s="1"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A234">
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A235">
         <v>7500078</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>279</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
         <v>13</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D235" t="s">
         <v>14</v>
       </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="F234" t="s">
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
         <v>15</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G235" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A235" s="1">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
         <v>25874</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="3">
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="3">
         <v>45914</v>
       </c>
-      <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A236">
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A237">
         <v>26927</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>281</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C237" t="s">
         <v>31</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D237" t="s">
         <v>32</v>
       </c>
-      <c r="G236" s="2">
+      <c r="G237" s="2">
         <v>46390</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A237" s="1">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
         <v>27659</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="3">
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="3">
         <v>46741</v>
       </c>
-      <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A238">
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A239">
         <v>25733</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>283</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>31</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D239" t="s">
         <v>32</v>
       </c>
-      <c r="G238" s="2">
+      <c r="G239" s="2">
         <v>45707</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A239" s="1">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
         <v>24061</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="3">
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="3">
         <v>46151</v>
       </c>
-      <c r="H239" s="1"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A240">
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A241">
         <v>20321</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>285</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>31</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D241" t="s">
         <v>32</v>
       </c>
-      <c r="G240" s="2">
+      <c r="G241" s="2">
         <v>46151</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A241" s="1">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
         <v>7500189</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E241" s="1">
-        <v>1</v>
-      </c>
-      <c r="F241" s="1" t="s">
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A242">
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243">
         <v>7500127</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>287</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C243" t="s">
         <v>13</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D243" t="s">
         <v>60</v>
       </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" t="s">
         <v>15</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G243" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A243" s="1">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
         <v>27614</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="3">
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="3">
         <v>46676</v>
       </c>
-      <c r="H243" s="1"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244">
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245">
         <v>25088</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>289</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C245" t="s">
         <v>31</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D245" t="s">
         <v>32</v>
       </c>
-      <c r="G244" s="2">
+      <c r="G245" s="2">
         <v>47065</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A245" s="1">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
         <v>28256</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="3">
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="3">
         <v>47020</v>
       </c>
-      <c r="H245" s="1"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A246">
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247">
         <v>27622</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>291</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C247" t="s">
         <v>31</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D247" t="s">
         <v>32</v>
       </c>
-      <c r="G246" s="2">
+      <c r="G247" s="2">
         <v>46683</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A247" s="1">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
         <v>27010</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="3">
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="3">
         <v>47023</v>
       </c>
-      <c r="H247" s="1"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A248">
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249">
         <v>28286</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B249" t="s">
         <v>293</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C249" t="s">
         <v>31</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D249" t="s">
         <v>32</v>
       </c>
-      <c r="G248" s="2">
+      <c r="G249" s="2">
         <v>47023</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A249" s="1">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
         <v>28327</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="3">
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="3">
         <v>47079</v>
       </c>
-      <c r="H249" s="1"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A250">
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251">
         <v>7500061</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>295</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C251" t="s">
         <v>13</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" t="s">
         <v>14</v>
       </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250" t="s">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
         <v>15</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G251" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A251" s="1">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
         <v>26442</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="3">
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="3">
         <v>46266</v>
       </c>
-      <c r="H251" s="1"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A252">
+      <c r="H252" s="1"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253">
         <v>7500174</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>297</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C253" t="s">
         <v>13</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D253" t="s">
         <v>14</v>
       </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252" t="s">
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" t="s">
         <v>15</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G253" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A253" s="1">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
         <v>28245</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="3">
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="3">
         <v>47019</v>
       </c>
-      <c r="H253" s="1"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A254">
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A255">
         <v>27643</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>299</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>31</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D255" t="s">
         <v>32</v>
       </c>
-      <c r="G254" s="2">
+      <c r="G255" s="2">
         <v>46699</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A255" s="1">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
         <v>7500597</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E255" s="1">
+      <c r="E256" s="1">
         <v>0</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="F256" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="G256" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H255" s="1"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A256">
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257">
         <v>7500406</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>302</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" t="s">
         <v>13</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D257" t="s">
         <v>14</v>
       </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256" t="s">
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" t="s">
         <v>49</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G257" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A257" s="1">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
         <v>7500601</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E257" s="1">
-        <v>1</v>
-      </c>
-      <c r="F257" s="1" t="s">
+      <c r="E258" s="1">
+        <v>1</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G257" s="3">
+      <c r="G258" s="3">
         <v>46303</v>
       </c>
-      <c r="H257" s="1"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A258">
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259">
         <v>7500663</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>304</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C259" t="s">
         <v>13</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>14</v>
       </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-      <c r="F258" t="s">
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" t="s">
         <v>146</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G259" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A259" s="1">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
         <v>7500510</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E259" s="1">
-        <v>1</v>
-      </c>
-      <c r="F259" s="1" t="s">
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F260" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="G260" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H259" s="1"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A260">
+      <c r="H260" s="1"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261">
         <v>12564</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>306</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>31</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D261" t="s">
         <v>32</v>
       </c>
-      <c r="G260" s="2">
+      <c r="G261" s="2">
         <v>47001</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A261" s="1">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
         <v>7500404</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E261" s="1">
-        <v>1</v>
-      </c>
-      <c r="F261" s="1" t="s">
+      <c r="E262" s="1">
+        <v>1</v>
+      </c>
+      <c r="F262" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G261" s="3">
+      <c r="G262" s="3">
         <v>46022</v>
       </c>
-      <c r="H261" s="1"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A262">
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263">
         <v>7500701</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>309</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C263" t="s">
         <v>13</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D263" t="s">
         <v>14</v>
       </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
         <v>219</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G263" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A263" s="1">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
         <v>27601</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-      <c r="G263" s="3">
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="3">
         <v>46669</v>
       </c>
-      <c r="H263" s="1"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A264">
+      <c r="H264" s="1"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265">
         <v>7500091</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>311</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C265" t="s">
         <v>13</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D265" t="s">
         <v>14</v>
       </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264" t="s">
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="s">
         <v>15</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G265" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A265" s="1">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
         <v>7500130</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E265" s="1">
-        <v>1</v>
-      </c>
-      <c r="F265" s="1" t="s">
+      <c r="E266" s="1">
+        <v>1</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G265" s="1" t="s">
+      <c r="G266" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H265" s="1"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A266">
+      <c r="H266" s="1"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A267">
         <v>7500229</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>313</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
         <v>13</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D267" t="s">
         <v>314</v>
       </c>
-      <c r="E266">
+      <c r="E267">
         <v>0.2</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F267" t="s">
         <v>315</v>
       </c>
-      <c r="G266" s="2">
+      <c r="G267" s="2">
         <v>45825</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A267" s="1">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
         <v>7500454</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E267" s="1">
-        <v>1</v>
-      </c>
-      <c r="F267" s="1" t="s">
+      <c r="E268" s="1">
+        <v>1</v>
+      </c>
+      <c r="F268" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G267" s="1" t="s">
+      <c r="G268" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H267" s="1"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A268">
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A269">
         <v>26543</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>317</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C269" t="s">
         <v>31</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D269" t="s">
         <v>32</v>
       </c>
-      <c r="G268" s="2">
+      <c r="G269" s="2">
         <v>46284</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A269" s="1">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
         <v>7500164</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E269" s="1">
-        <v>1</v>
-      </c>
-      <c r="F269" s="1" t="s">
+      <c r="E270" s="1">
+        <v>1</v>
+      </c>
+      <c r="F270" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G269" s="1" t="s">
+      <c r="G270" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H269" s="1"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A270">
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A271">
         <v>7500521</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B271" t="s">
         <v>319</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C271" t="s">
         <v>13</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D271" t="s">
         <v>14</v>
       </c>
-      <c r="E270">
-        <v>1</v>
-      </c>
-      <c r="F270" t="s">
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271" t="s">
         <v>49</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G271" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A271" s="1">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
         <v>25876</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="3">
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="3">
         <v>45914</v>
       </c>
-      <c r="H271" s="1"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A272">
+      <c r="H272" s="1"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A273">
         <v>28273</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B273" t="s">
         <v>321</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C273" t="s">
         <v>31</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D273" t="s">
         <v>32</v>
       </c>
-      <c r="G272" s="2">
+      <c r="G273" s="2">
         <v>47021</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A273" s="1">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
         <v>21347</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-      <c r="G273" s="3">
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="3">
         <v>46081</v>
       </c>
-      <c r="H273" s="1"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A274">
+      <c r="H274" s="1"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275">
         <v>25736</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B275" t="s">
         <v>323</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C275" t="s">
         <v>31</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D275" t="s">
         <v>32</v>
       </c>
-      <c r="G274" s="2">
+      <c r="G275" s="2">
         <v>45976</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A275" s="1">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
         <v>17441</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
-      <c r="G275" s="3">
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="3">
         <v>46090</v>
       </c>
-      <c r="H275" s="1"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A276">
+      <c r="H276" s="1"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277">
         <v>24927</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B277" t="s">
         <v>325</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C277" t="s">
         <v>31</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D277" t="s">
         <v>32</v>
       </c>
-      <c r="G276" s="2">
+      <c r="G277" s="2">
         <v>47114</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A277" s="1">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
         <v>23655</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
-      <c r="G277" s="3">
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="3">
         <v>45717</v>
       </c>
-      <c r="H277" s="1"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A278">
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279">
         <v>25690</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B279" t="s">
         <v>327</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C279" t="s">
         <v>31</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D279" t="s">
         <v>32</v>
       </c>
-      <c r="G278" s="2">
+      <c r="G279" s="2">
         <v>47014</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A279" s="1">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
         <v>22960</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
-      <c r="G279" s="3">
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="3">
         <v>45549</v>
       </c>
-      <c r="H279" s="1"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A280">
+      <c r="H280" s="1"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281">
         <v>21106</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B281" t="s">
         <v>329</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C281" t="s">
         <v>31</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D281" t="s">
         <v>32</v>
       </c>
-      <c r="G280" s="2">
+      <c r="G281" s="2">
         <v>45907</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A281" s="1">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
         <v>20280</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-      <c r="G281" s="3">
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="3">
         <v>46741</v>
       </c>
-      <c r="H281" s="1"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A282">
+      <c r="H282" s="1"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A283">
         <v>7500041</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>331</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
         <v>13</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D283" t="s">
         <v>83</v>
       </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282" t="s">
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" t="s">
         <v>15</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G283" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A283" s="1">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
         <v>7500201</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C284" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E283" s="1">
-        <v>1</v>
-      </c>
-      <c r="F283" s="1" t="s">
+      <c r="E284" s="1">
+        <v>1</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G283" s="1" t="s">
+      <c r="G284" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H283" s="1"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A284">
+      <c r="H284" s="1"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A285">
         <v>21997</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B285" t="s">
         <v>333</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C285" t="s">
         <v>31</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D285" t="s">
         <v>32</v>
       </c>
-      <c r="G284" s="2">
+      <c r="G285" s="2">
         <v>46336</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A285" s="1">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
         <v>7500204</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E285" s="1">
-        <v>1</v>
-      </c>
-      <c r="F285" s="1" t="s">
+      <c r="E286" s="1">
+        <v>1</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G285" s="1" t="s">
+      <c r="G286" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H285" s="1"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A286">
+      <c r="H286" s="1"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A287">
         <v>25809</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B287" t="s">
         <v>335</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C287" t="s">
         <v>31</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D287" t="s">
         <v>32</v>
       </c>
-      <c r="G286" s="2">
+      <c r="G287" s="2">
         <v>47057</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A287" s="1">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
         <v>7500940</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E287" s="1">
-        <v>1</v>
-      </c>
-      <c r="F287" s="1" t="s">
+      <c r="E288" s="1">
+        <v>1</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G287" s="3">
+      <c r="G288" s="3">
         <v>46187</v>
       </c>
-      <c r="H287" s="1"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A288">
+      <c r="H288" s="1"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A289">
         <v>26260</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B289" t="s">
         <v>337</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C289" t="s">
         <v>31</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D289" t="s">
         <v>32</v>
       </c>
-      <c r="G288" s="2">
+      <c r="G289" s="2">
         <v>46012</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A289" s="1">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
         <v>7500281</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E289" s="1">
-        <v>1</v>
-      </c>
-      <c r="F289" s="1" t="s">
+      <c r="E290" s="1">
+        <v>1</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G289" s="1" t="s">
+      <c r="G290" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H289" s="1"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A290">
+      <c r="H290" s="1"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A291">
         <v>26904</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>339</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C291" t="s">
         <v>31</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D291" t="s">
         <v>32</v>
       </c>
-      <c r="G290" s="2">
+      <c r="G291" s="2">
         <v>46330</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A291" s="1">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
         <v>22982</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C292" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-      <c r="G291" s="3">
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="3">
         <v>46671</v>
       </c>
-      <c r="H291" s="1"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A292">
+      <c r="H292" s="1"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A293">
         <v>22579</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>341</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C293" t="s">
         <v>31</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D293" t="s">
         <v>32</v>
       </c>
-      <c r="G292" s="2">
+      <c r="G293" s="2">
         <v>46642</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A293" s="1">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
         <v>27666</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="C294" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-      <c r="G293" s="3">
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="3">
         <v>46749</v>
       </c>
-      <c r="H293" s="1"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A294">
+      <c r="H294" s="1"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A295">
         <v>7500400</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>343</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C295" t="s">
         <v>13</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D295" t="s">
         <v>14</v>
       </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294" t="s">
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295" t="s">
         <v>49</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G295" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A295" s="1">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
         <v>20888</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B296" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="3">
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="3">
         <v>45914</v>
       </c>
-      <c r="H295" s="1"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A296">
+      <c r="H296" s="1"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A297">
         <v>7500230</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B297" t="s">
         <v>345</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C297" t="s">
         <v>13</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D297" t="s">
         <v>14</v>
       </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296" t="s">
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" t="s">
         <v>146</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G297" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A297" s="1">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
         <v>27608</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B298" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-      <c r="G297" s="3">
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="3">
         <v>46673</v>
       </c>
-      <c r="H297" s="1"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A298">
+      <c r="H298" s="1"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A299">
         <v>17369</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>347</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C299" t="s">
         <v>31</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D299" t="s">
         <v>32</v>
       </c>
-      <c r="G298" s="2">
+      <c r="G299" s="2">
         <v>45746</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A299" s="1">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
         <v>22354</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B300" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-      <c r="G299" s="3">
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="3">
         <v>45570</v>
       </c>
-      <c r="H299" s="1"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A300">
+      <c r="H300" s="1"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A301">
         <v>18411</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>349</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C301" t="s">
         <v>31</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D301" t="s">
         <v>32</v>
       </c>
-      <c r="G300" s="2">
+      <c r="G301" s="2">
         <v>46020</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A301" s="1">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
         <v>19044</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C302" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
-      <c r="G301" s="3">
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="3">
         <v>46019</v>
       </c>
-      <c r="H301" s="1"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A302">
+      <c r="H302" s="1"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A303">
         <v>26877</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B303" t="s">
         <v>351</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C303" t="s">
         <v>31</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D303" t="s">
         <v>32</v>
       </c>
-      <c r="G302" s="2">
+      <c r="G303" s="2">
         <v>46312</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A303" s="1">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
         <v>7500423</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C304" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E303" s="1">
-        <v>1</v>
-      </c>
-      <c r="F303" s="1" t="s">
+      <c r="E304" s="1">
+        <v>1</v>
+      </c>
+      <c r="F304" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G303" s="1" t="s">
+      <c r="G304" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H303" s="1"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A304">
+      <c r="H304" s="1"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A305">
         <v>7500470</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B305" t="s">
         <v>353</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C305" t="s">
         <v>13</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D305" t="s">
         <v>14</v>
       </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304" t="s">
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305" t="s">
         <v>146</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G305" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A305" s="1">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
         <v>26269</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C306" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-      <c r="G305" s="3">
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="3">
         <v>46046</v>
       </c>
-      <c r="H305" s="1"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A306">
+      <c r="H306" s="1"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A307">
         <v>12270</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>355</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C307" t="s">
         <v>31</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D307" t="s">
         <v>32</v>
       </c>
-      <c r="G306" s="2">
+      <c r="G307" s="2">
         <v>45917</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A307" s="1">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
         <v>26537</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-      <c r="G307" s="3">
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="3">
         <v>46280</v>
       </c>
-      <c r="H307" s="1"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A308">
+      <c r="H308" s="1"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A309">
         <v>7500248</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B309" t="s">
         <v>357</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C309" t="s">
         <v>35</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D309" t="s">
         <v>53</v>
       </c>
-      <c r="E308">
-        <v>1</v>
-      </c>
-      <c r="F308" t="s">
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309" t="s">
         <v>15</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G309" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A309" s="1">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
         <v>7500181</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E309" s="1">
-        <v>1</v>
-      </c>
-      <c r="F309" s="1" t="s">
+      <c r="E310" s="1">
+        <v>1</v>
+      </c>
+      <c r="F310" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G309" s="1" t="s">
+      <c r="G310" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H309" s="1"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A310">
+      <c r="H310" s="1"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A311">
         <v>25507</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>359</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C311" t="s">
         <v>31</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D311" t="s">
         <v>32</v>
       </c>
-      <c r="G310" s="2">
+      <c r="G311" s="2">
         <v>46453</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A311" s="1">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
         <v>25226</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
-      <c r="G311" s="3">
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="3">
         <v>47043</v>
       </c>
-      <c r="H311" s="1"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A312">
+      <c r="H312" s="1"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A313">
         <v>24184</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>361</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C313" t="s">
         <v>31</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D313" t="s">
         <v>32</v>
       </c>
-      <c r="G312" s="2">
+      <c r="G313" s="2">
         <v>46266</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A313" s="1">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
         <v>26178</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="C314" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="3">
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="3">
         <v>45927</v>
       </c>
-      <c r="H313" s="1"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A314">
+      <c r="H314" s="1"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A315">
         <v>22473</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>363</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C315" t="s">
         <v>31</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D315" t="s">
         <v>32</v>
       </c>
-      <c r="G314" s="2">
+      <c r="G315" s="2">
         <v>46687</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A315" s="1">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
         <v>24247</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
-      <c r="G315" s="3">
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="3">
         <v>46734</v>
       </c>
-      <c r="H315" s="1"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A316">
+      <c r="H316" s="1"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A317">
         <v>26326</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" t="s">
         <v>365</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C317" t="s">
         <v>31</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D317" t="s">
         <v>32</v>
       </c>
-      <c r="G316" s="2">
+      <c r="G317" s="2">
         <v>46111</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A317" s="1">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
         <v>7500194</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="C318" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E317" s="1">
-        <v>1</v>
-      </c>
-      <c r="F317" s="1" t="s">
+      <c r="E318" s="1">
+        <v>1</v>
+      </c>
+      <c r="F318" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G317" s="1" t="s">
+      <c r="G318" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H317" s="1"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A318">
+      <c r="H318" s="1"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A319">
         <v>7500259</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>367</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C319" t="s">
         <v>35</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D319" t="s">
         <v>53</v>
       </c>
-      <c r="E318">
-        <v>1</v>
-      </c>
-      <c r="F318" t="s">
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319" t="s">
         <v>15</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G319" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A319" s="1">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
         <v>26433</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C320" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E319" s="1"/>
-      <c r="F319" s="1"/>
-      <c r="G319" s="3">
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="3">
         <v>46265</v>
       </c>
-      <c r="H319" s="1"/>
+      <c r="H320" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:H319"/>
+  <autoFilter ref="A1:H320"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -11784,8 +11797,8 @@
   <dimension ref="A1:Y454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23383,7 +23396,9 @@
       <c r="D240" s="1">
         <v>2100</v>
       </c>
-      <c r="E240" s="4"/>
+      <c r="E240" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="F240" s="1" t="s">
         <v>884</v>
       </c>
@@ -33109,13 +33124,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>RH!$B$2:$B$319</xm:f>
+            <xm:f>RH!$B$3:$B$320</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E451</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>RH!$B$2:$B$319</xm:f>
+            <xm:f>RH!$B$3:$B$320</xm:f>
           </x14:formula1>
           <xm:sqref>X2:X451</xm:sqref>
         </x14:dataValidation>
